--- a/cad/Solidworks Assemblies/cubes/cube_sizes.xlsx
+++ b/cad/Solidworks Assemblies/cubes/cube_sizes.xlsx
@@ -133,7 +133,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +150,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,16 +183,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -478,313 +490,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="81.75">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:3" ht="81.75">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>6.259345474939539</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>6.1069440198975338</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>5.7912552915962348</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>5.3775941993393621</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>4.8550749249096263</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>4.278126559393459</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>3.679406557442721</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>3.0806865554919827</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>2.5146240081931022</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>2.0029905519806528</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>1.6546443690274957</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>1.2409832767706217</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>0.96883782133846785</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>0.69669236590631423</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>1.110353458163188</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>1.5240145504200613</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>2.2098210981090896</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>3.1133440101438405</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>4.3325556504798906</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>5.9327709284209558</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>7.8377891164460332</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>10.036724396337839</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>12.627549132051941</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>15.512290959632773</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>18.484119332951895</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>21.521262615574731</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>24.416890261372849</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>25.949499165275459</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>27.994574290484135</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>29.319699499165274</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>30.185726210350584</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>20.054257095158597</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>14.294657762938229</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>10.924457429048415</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>8.8898163606010012</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>7.293405676126878</v>
       </c>
+      <c r="C37" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/cad/Solidworks Assemblies/cubes/cube_sizes.xlsx
+++ b/cad/Solidworks Assemblies/cubes/cube_sizes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>cube01</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>$PRP@CubeSize</t>
+  </si>
+  <si>
+    <t>strip division</t>
+  </si>
+  <si>
+    <t>3 LED multiple</t>
+  </si>
+  <si>
+    <t>inches of LED tape</t>
+  </si>
+  <si>
+    <t>meters</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -195,6 +207,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,343 +505,905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="81.75">
+    <row r="1" spans="1:6" ht="90.75">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>6.259345474939539</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="5">
+        <f>B2 / 4</f>
+        <v>1.5648363687348847</v>
+      </c>
+      <c r="D2" s="5">
+        <f>ROUNDUP(C2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>D2*4</f>
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>E2*2.24/10</f>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>6.1069440198975338</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C37" si="0">B3 / 4</f>
+        <v>1.5267360049743834</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D37" si="1">ROUNDUP(C3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E37" si="2">D3*4</f>
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F37" si="3">E3*2.24/10</f>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>5.7912552915962348</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4478138228990587</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>5.3775941993393621</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3443985498348405</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>4.8550749249096263</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2137687312274066</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>4.278126559393459</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0695316398483647</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>3.679406557442721</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91985163936068026</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>3.0806865554919827</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77017163887299567</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>2.5146240081931022</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62865600204827554</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>2.0029905519806528</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5007476379951632</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>1.6546443690274957</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.41366109225687392</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>1.2409832767706217</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.31024581919265543</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>0.96883782133846785</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.24220945533461696</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.69669236590631423</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17417309147657856</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>1.110353458163188</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27758836454079699</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>1.5240145504200613</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.38100363760501532</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>2.2098210981090896</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.55245527452727239</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>3.1133440101438405</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77833600253596014</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.89600000000000013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>4.3325556504798906</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0831389126199726</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>5.9327709284209558</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4831927321052389</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>7.8377891164460332</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9594472791115083</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>10.036724396337839</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5091810990844596</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>2.6880000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4">
         <v>12.627549132051941</v>
       </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1568872830129853</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>3.5840000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>15.512290959632773</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8780727399081933</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>3.5840000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>18.484119332951895</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>4.6210298332379738</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>21.521262615574731</v>
       </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3803156538936827</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>5.3760000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4">
         <v>24.416890261372849</v>
       </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1042225653432123</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>6.2720000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>25.949499165275459</v>
       </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4873747913188646</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>6.2720000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="4">
         <v>27.994574290484135</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9986435726210336</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>6.2720000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="4">
         <v>29.319699499165274</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>7.3299248747913186</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>7.168000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="4">
         <v>30.185726210350584</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>7.546431552587646</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>7.168000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="4">
         <v>20.054257095158597</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>5.0135642737896493</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>5.3760000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="4">
         <v>14.294657762938229</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5736644407345572</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>3.5840000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="4">
         <v>10.924457429048415</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7311143572621037</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>2.6880000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="4">
         <v>8.8898163606010012</v>
       </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2224540901502503</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>2.6880000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="4">
         <v>7.293405676126878</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8233514190317195</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>1.7920000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="F39">
+        <f>SUM(F2:F37)</f>
+        <v>95.872000000000043</v>
+      </c>
+      <c r="G39">
+        <f>F39*3</f>
+        <v>287.6160000000001</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cad/Solidworks Assemblies/cubes/cube_sizes.xlsx
+++ b/cad/Solidworks Assemblies/cubes/cube_sizes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>cube01</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>meters</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>StripWidth</t>
   </si>
 </sst>
 </file>
@@ -505,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="90.75">
+    <row r="1" spans="1:11" ht="90.75">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>36</v>
@@ -530,8 +536,14 @@
       <c r="F1" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +566,18 @@
         <f>E2*2.24/10</f>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2">
+        <f>ROUND(B2,1) - ($J$2 + $K$2 + 0.14) * 2</f>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J2">
+        <v>0.375</v>
+      </c>
+      <c r="K2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,8 +600,12 @@
         <f t="shared" ref="F3:F37" si="3">E3*2.24/10</f>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3">
+        <f t="shared" ref="H3:H37" si="4">ROUND(B3,1) - ($J$2 + $K$2 + 0.14) * 2</f>
+        <v>3.8199999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -602,8 +628,12 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>3.5199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -626,8 +656,12 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -650,8 +684,12 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -675,7 +713,7 @@
         <v>1.7920000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -699,7 +737,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -723,7 +761,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -747,7 +785,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -771,7 +809,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -795,7 +833,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -819,7 +857,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:11">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -843,7 +881,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:11">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -867,7 +905,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -891,7 +929,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -915,7 +953,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -939,7 +977,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -963,7 +1001,7 @@
         <v>0.89600000000000013</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -987,7 +1025,7 @@
         <v>1.7920000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1010,8 +1048,12 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1034,8 +1076,12 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1058,8 +1104,12 @@
         <f t="shared" si="3"/>
         <v>2.6880000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1082,8 +1132,12 @@
         <f t="shared" si="3"/>
         <v>3.5840000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1106,8 +1160,12 @@
         <f t="shared" si="3"/>
         <v>3.5840000000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>13.219999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1130,8 +1188,12 @@
         <f t="shared" si="3"/>
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1154,8 +1216,12 @@
         <f t="shared" si="3"/>
         <v>5.3760000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1178,8 +1244,12 @@
         <f t="shared" si="3"/>
         <v>6.2720000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>22.119999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1202,8 +1272,12 @@
         <f t="shared" si="3"/>
         <v>6.2720000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>23.619999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1226,8 +1300,12 @@
         <f t="shared" si="3"/>
         <v>6.2720000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1250,8 +1328,12 @@
         <f t="shared" si="3"/>
         <v>7.168000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>27.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1274,8 +1356,12 @@
         <f t="shared" si="3"/>
         <v>7.168000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>27.919999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1298,8 +1384,12 @@
         <f t="shared" si="3"/>
         <v>5.3760000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1322,8 +1412,12 @@
         <f t="shared" si="3"/>
         <v>3.5840000000000005</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1346,8 +1440,12 @@
         <f t="shared" si="3"/>
         <v>2.6880000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>8.620000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1370,8 +1468,12 @@
         <f t="shared" si="3"/>
         <v>2.6880000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1394,8 +1496,12 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="F39">
         <f>SUM(F2:F37)</f>
         <v>95.872000000000043</v>

--- a/cad/Solidworks Assemblies/cubes/cube_sizes.xlsx
+++ b/cad/Solidworks Assemblies/cubes/cube_sizes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9690"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>cube01</t>
   </si>
@@ -145,6 +145,69 @@
   </si>
   <si>
     <t>StripWidth</t>
+  </si>
+  <si>
+    <t>BracketSize</t>
+  </si>
+  <si>
+    <t>Full Length Count</t>
+  </si>
+  <si>
+    <t>Cut Bracket A</t>
+  </si>
+  <si>
+    <t>Cut Bracket B</t>
+  </si>
+  <si>
+    <t>Cut Bracket C</t>
+  </si>
+  <si>
+    <t>Cut Bracket D</t>
+  </si>
+  <si>
+    <t>Cut Bracket E</t>
+  </si>
+  <si>
+    <t>Cut Bracket F</t>
+  </si>
+  <si>
+    <t>bo3</t>
+  </si>
+  <si>
+    <t>br1</t>
+  </si>
+  <si>
+    <t>by1</t>
+  </si>
+  <si>
+    <t>bo1</t>
+  </si>
+  <si>
+    <t>br3</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>br2</t>
+  </si>
+  <si>
+    <t>bg3</t>
+  </si>
+  <si>
+    <t>bg2</t>
+  </si>
+  <si>
+    <t>by3</t>
+  </si>
+  <si>
+    <t>bo2</t>
+  </si>
+  <si>
+    <t>by2</t>
+  </si>
+  <si>
+    <t>bg1</t>
   </si>
 </sst>
 </file>
@@ -177,18 +240,90 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -201,7 +336,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -216,6 +351,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,15 +700,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="7" style="19" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="22" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="26"/>
+    <col min="19" max="19" width="9.140625" style="27"/>
+    <col min="20" max="20" width="9.140625" style="29"/>
+    <col min="21" max="21" width="9.140625" style="31"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="90.75">
+    <row r="1" spans="1:23" ht="90.75">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>36</v>
@@ -536,14 +740,44 @@
       <c r="F1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="28"/>
+      <c r="U1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="W1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,18 +800,47 @@
         <f>E2*2.24/10</f>
         <v>1.7920000000000003</v>
       </c>
-      <c r="H2">
-        <f>ROUND(B2,1) - ($J$2 + $K$2 + 0.14) * 2</f>
+      <c r="H2" s="4">
+        <f>ROUND(B2,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="J2">
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="32">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="33">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="34">
+        <v>3.08</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="35">
+        <v>3.11</v>
+      </c>
+      <c r="S2" s="36"/>
+      <c r="U2" s="37"/>
+      <c r="V2">
         <v>0.375</v>
       </c>
-      <c r="K2">
+      <c r="W2">
         <v>0.625</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,12 +863,36 @@
         <f t="shared" ref="F3:F37" si="3">E3*2.24/10</f>
         <v>1.7920000000000003</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H37" si="4">ROUND(B3,1) - ($J$2 + $K$2 + 0.14) * 2</f>
+      <c r="H3" s="4">
+        <f>ROUND(B3,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>3.8199999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="32">
+        <v>3.22</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="33">
+        <v>2.35</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="34">
+        <v>3.14</v>
+      </c>
+      <c r="Q3" s="35"/>
+      <c r="S3" s="36"/>
+      <c r="U3" s="37"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,12 +915,36 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="4"/>
+      <c r="H4" s="4">
+        <f>ROUND(B4,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>3.5199999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="32">
+        <v>3.12</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="33">
+        <v>2.77</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="34">
+        <v>1.73</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="S4" s="36"/>
+      <c r="U4" s="37"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,12 +967,36 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="4"/>
+      <c r="H5" s="4">
+        <f>ROUND(B5,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>3.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="S5" s="36"/>
+      <c r="U5" s="37"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -684,12 +1019,51 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
+      <c r="H6" s="4">
+        <f>ROUND(B6,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>2.62</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="33">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="34">
+        <v>2.52</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>1.89</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="37">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -712,8 +1086,15 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="H7" s="4"/>
+      <c r="K7" s="32"/>
+      <c r="M7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="Q7" s="35"/>
+      <c r="S7" s="36"/>
+      <c r="U7" s="37"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -736,8 +1117,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="H8" s="4"/>
+      <c r="K8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="Q8" s="35"/>
+      <c r="S8" s="36"/>
+      <c r="U8" s="37"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -760,8 +1148,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9" s="4"/>
+      <c r="K9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="Q9" s="35"/>
+      <c r="S9" s="36"/>
+      <c r="U9" s="37"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -784,8 +1179,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="H10" s="4"/>
+      <c r="K10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="Q10" s="35"/>
+      <c r="S10" s="36"/>
+      <c r="U10" s="37"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -808,8 +1210,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="H11" s="4"/>
+      <c r="K11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="Q11" s="35"/>
+      <c r="S11" s="36"/>
+      <c r="U11" s="37"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -832,8 +1241,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="H12" s="4"/>
+      <c r="K12" s="32"/>
+      <c r="M12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="Q12" s="35"/>
+      <c r="S12" s="36"/>
+      <c r="U12" s="37"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -856,8 +1272,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="H13" s="4"/>
+      <c r="K13" s="32"/>
+      <c r="M13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="Q13" s="35"/>
+      <c r="S13" s="36"/>
+      <c r="U13" s="37"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -880,8 +1303,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="H14" s="4"/>
+      <c r="K14" s="32"/>
+      <c r="M14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="Q14" s="35"/>
+      <c r="S14" s="36"/>
+      <c r="U14" s="37"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -904,8 +1334,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="H15" s="4"/>
+      <c r="K15" s="32"/>
+      <c r="M15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="Q15" s="35"/>
+      <c r="S15" s="36"/>
+      <c r="U15" s="37"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -928,8 +1365,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="4"/>
+      <c r="K16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="Q16" s="35"/>
+      <c r="S16" s="36"/>
+      <c r="U16" s="37"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -952,8 +1396,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="4"/>
+      <c r="K17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="Q17" s="35"/>
+      <c r="S17" s="36"/>
+      <c r="U17" s="37"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -976,8 +1427,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="4"/>
+      <c r="K18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="Q18" s="35"/>
+      <c r="S18" s="36"/>
+      <c r="U18" s="37"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1000,8 +1458,15 @@
         <f t="shared" si="3"/>
         <v>0.89600000000000013</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="4"/>
+      <c r="K19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="Q19" s="35"/>
+      <c r="S19" s="36"/>
+      <c r="U19" s="37"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1024,8 +1489,15 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="4"/>
+      <c r="K20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="Q20" s="35"/>
+      <c r="S20" s="36"/>
+      <c r="U20" s="37"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1048,12 +1520,36 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
+      <c r="H21" s="4">
+        <f>ROUND(B21,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>3.62</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="32">
+        <v>1.92</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="33">
+        <v>1.07</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="34">
+        <v>1.17</v>
+      </c>
+      <c r="Q21" s="35"/>
+      <c r="S21" s="36"/>
+      <c r="U21" s="37"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1076,12 +1572,36 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
+      <c r="H22" s="4">
+        <f>ROUND(B22,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>5.52</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="32">
+        <v>1.36</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="33">
+        <v>3.26</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q22" s="35"/>
+      <c r="S22" s="36"/>
+      <c r="U22" s="37"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1104,12 +1624,46 @@
         <f t="shared" si="3"/>
         <v>2.6880000000000002</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
+      <c r="H23" s="4">
+        <f>ROUND(B23,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>7.72</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="32">
+        <v>5.83</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="33">
+        <v>0</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="34">
+        <v>2.72</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="35">
+        <v>3.27</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="36">
+        <v>3.86</v>
+      </c>
+      <c r="U23" s="37"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1132,12 +1686,51 @@
         <f t="shared" si="3"/>
         <v>3.5840000000000005</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
+      <c r="H24" s="4">
+        <f>ROUND(B24,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>10.32</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="32">
+        <v>5.17</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="33">
+        <v>7.31</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="34">
+        <v>8.07</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="35">
+        <v>4.38</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="36">
+        <v>8.56</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="U24" s="37">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1160,12 +1753,16 @@
         <f t="shared" si="3"/>
         <v>3.5840000000000005</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
+      <c r="H25" s="4">
+        <f>ROUND(B25,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>13.219999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1188,12 +1785,13 @@
         <f t="shared" si="3"/>
         <v>4.4800000000000004</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="4"/>
+      <c r="H26" s="4">
+        <f>ROUND(B26,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>16.22</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1216,12 +1814,13 @@
         <f t="shared" si="3"/>
         <v>5.3760000000000003</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="4"/>
+      <c r="H27" s="4">
+        <f>ROUND(B27,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>19.22</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1244,12 +1843,13 @@
         <f t="shared" si="3"/>
         <v>6.2720000000000002</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="4"/>
+      <c r="H28" s="4">
+        <f>ROUND(B28,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>22.119999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1272,12 +1872,13 @@
         <f t="shared" si="3"/>
         <v>6.2720000000000002</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="4"/>
+      <c r="H29" s="4">
+        <f>ROUND(B29,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>23.619999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1300,12 +1901,13 @@
         <f t="shared" si="3"/>
         <v>6.2720000000000002</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="4"/>
+      <c r="H30" s="4">
+        <f>ROUND(B30,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>25.72</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1328,12 +1930,13 @@
         <f t="shared" si="3"/>
         <v>7.168000000000001</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="4"/>
+      <c r="H31" s="4">
+        <f>ROUND(B31,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>27.02</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1356,12 +1959,13 @@
         <f t="shared" si="3"/>
         <v>7.168000000000001</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="4"/>
+      <c r="H32" s="4">
+        <f>ROUND(B32,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>27.919999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1384,12 +1988,13 @@
         <f t="shared" si="3"/>
         <v>5.3760000000000003</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="4"/>
+      <c r="H33" s="4">
+        <f>ROUND(B33,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>17.82</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1412,12 +2017,13 @@
         <f t="shared" si="3"/>
         <v>3.5840000000000005</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="4"/>
+      <c r="H34" s="4">
+        <f>ROUND(B34,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>12.02</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="K34" s="32"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1440,12 +2046,13 @@
         <f t="shared" si="3"/>
         <v>2.6880000000000002</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="4"/>
+      <c r="H35" s="4">
+        <f>ROUND(B35,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>8.620000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="K35" s="32"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1468,12 +2075,13 @@
         <f t="shared" si="3"/>
         <v>2.6880000000000002</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="4"/>
+      <c r="H36" s="4">
+        <f>ROUND(B36,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>6.62</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K36" s="32"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1496,12 +2104,13 @@
         <f t="shared" si="3"/>
         <v>1.7920000000000003</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="4"/>
+      <c r="H37" s="4">
+        <f>ROUND(B37,1) - ($V$2 + $W$2 + 0.14) * 2</f>
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="K37" s="32"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="F39">
         <f>SUM(F2:F37)</f>
         <v>95.872000000000043</v>
